--- a/pcode_help.xlsx
+++ b/pcode_help.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Punya\tur_ocha\03_IM_Tools\PCoder_Generic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_OCHA_TR\03_IM_Tools\PCoder_Generic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15348" yWindow="-12" windowWidth="15336" windowHeight="11760"/>
+    <workbookView xWindow="15345" yWindow="-15" windowWidth="15330" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="help" sheetId="8" r:id="rId1"/>
-    <sheet name="admin2_EN" sheetId="9" r:id="rId2"/>
-    <sheet name="admin1_AR" sheetId="10" r:id="rId3"/>
+    <sheet name="settings" sheetId="11" r:id="rId2"/>
+    <sheet name="admin1_EN" sheetId="12" r:id="rId3"/>
+    <sheet name="admin2_EN" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">admin2_EN!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">admin2_EN!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="205">
   <si>
     <t>One time only for initial loading of Add-In</t>
   </si>
@@ -479,48 +480,6 @@
     <t>Syria</t>
   </si>
   <si>
-    <t>مدينة دمشق</t>
-  </si>
-  <si>
-    <t>حلب</t>
-  </si>
-  <si>
-    <t>ريف دمشق</t>
-  </si>
-  <si>
-    <t>حمص</t>
-  </si>
-  <si>
-    <t>حماة</t>
-  </si>
-  <si>
-    <t>اللاذقية</t>
-  </si>
-  <si>
-    <t>إدلب</t>
-  </si>
-  <si>
-    <t>الحسكة</t>
-  </si>
-  <si>
-    <t>دير الزور</t>
-  </si>
-  <si>
-    <t>طرطوس</t>
-  </si>
-  <si>
-    <t>الرقة</t>
-  </si>
-  <si>
-    <t>درعا</t>
-  </si>
-  <si>
-    <t>السويداء</t>
-  </si>
-  <si>
-    <t>القنيطرة</t>
-  </si>
-  <si>
     <t>settings</t>
   </si>
   <si>
@@ -578,9 +537,6 @@
     <t>To remove a menu item accessing P-Coding tool, click this button. A P-Coder command should disappear from 'ADD-INS' menu. Save and Close file.</t>
   </si>
   <si>
-    <t>List of admin levels and display names. Keep the sheet name same as the name listed in the "settings" sheet otherwise program will not work. No space in the sheet name.</t>
-  </si>
-  <si>
     <t>Help file. This file.</t>
   </si>
   <si>
@@ -612,13 +568,85 @@
   </si>
   <si>
     <t>Standard PCode list arranged in multiple sheets. Read "settings" sheet in the file.</t>
+  </si>
+  <si>
+    <t>Sheet names (same as admin level)</t>
+  </si>
+  <si>
+    <t>Display names in the form</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NumRows</t>
+  </si>
+  <si>
+    <t>Governorate</t>
+  </si>
+  <si>
+    <t>Same as sheet name. This name is used to load in the form.</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>SubDistrict</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>المحافظة</t>
+  </si>
+  <si>
+    <t>نفس الاسم المكتوب في الصفحة.هذا الاسم يستخدم ليتم تحميله في نموذج ادخال البيانات</t>
+  </si>
+  <si>
+    <t>المنطقة</t>
+  </si>
+  <si>
+    <t>الناحية</t>
+  </si>
+  <si>
+    <t>تجمع سكاني</t>
+  </si>
+  <si>
+    <t>admin5_EN</t>
+  </si>
+  <si>
+    <t>Neighbourhood</t>
+  </si>
+  <si>
+    <t>admin0_PCODE</t>
+  </si>
+  <si>
+    <t>admin0_EN</t>
+  </si>
+  <si>
+    <t>admin1_PCODE</t>
+  </si>
+  <si>
+    <t>admin2_PCODE</t>
+  </si>
+  <si>
+    <t>CREATE TABLES</t>
+  </si>
+  <si>
+    <t>ALL SHEETS</t>
+  </si>
+  <si>
+    <t>In each sheet, create tables for the list of standard names with headers - table name to be exactly same as sheet name as above</t>
+  </si>
+  <si>
+    <t>List of admin levels and display names. Keep the sheet name same as the name listed in the "settings" sheet otherwise program will not work. No space in the sheet name. Use the same sheet name to create tables in each sheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -667,6 +695,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -700,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -732,12 +766,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -803,12 +910,306 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_admin2" xfId="1"/>
+    <cellStyle name="Normal_dist" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -825,63 +1226,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="9727" r="47106" b="64740"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10477500" y="1760219"/>
-          <a:ext cx="5013960" cy="800101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1684021</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7421881</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1906</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>41445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -907,19 +1277,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7504216</xdr:colOff>
+      <xdr:colOff>7313716</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect b="25390"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -943,20 +1319,26 @@
       <xdr:rowOff>182881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7391400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>28799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -980,31 +1362,39 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1516380</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90CC4A1-231E-40C3-BC38-5AF2E5703E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="373380"/>
-          <a:ext cx="3467100" cy="525780"/>
+          <a:off x="7677150" y="428625"/>
+          <a:ext cx="2933700" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1">
@@ -1037,17 +1427,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>EXAMPLE SHEET</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>for detail, read</a:t>
+            <a:t>EXAMPLE for pcode_data.xlsx</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
@@ -1055,7 +1435,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 'settings' sheet of pcode-data.xlsx file.</a:t>
+            <a:t> file</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
@@ -1075,30 +1455,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17AE115-5BBB-44D0-BACF-7946E9E1D8BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="175260"/>
-          <a:ext cx="3467100" cy="525780"/>
+          <a:off x="7200900" y="647700"/>
+          <a:ext cx="2933700" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1">
@@ -1131,17 +1519,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>EXAMPLE SHEET</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>for detail, read</a:t>
+            <a:t>EXAMPLE for pcode_data.xlsx</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
@@ -1149,7 +1527,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 'settings' sheet of pcode-data.xlsx file.</a:t>
+            <a:t> file</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
@@ -1162,6 +1540,139 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD806E3-144B-4E50-9935-498896D2580B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="447675"/>
+          <a:ext cx="2933700" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EXAMPLE for pcode_data.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> file</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="settings" displayName="settings" ref="A1:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sheet names (same as admin level)" dataDxfId="12"/>
+    <tableColumn id="2" name="Display names in the form" dataDxfId="11"/>
+    <tableColumn id="3" name="Description" dataDxfId="10"/>
+    <tableColumn id="4" name="NumRows" dataDxfId="9">
+      <calculatedColumnFormula>COUNTA(INDIRECT(A2&amp;"!"&amp;"A:A"))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="admin1_EN" displayName="admin1_EN" ref="A1:D15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D15"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="admin0_PCODE"/>
+    <tableColumn id="2" name="admin0_EN"/>
+    <tableColumn id="3" name="admin1_PCODE"/>
+    <tableColumn id="4" name="admin1_EN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="admin2_EN" displayName="admin2_EN" ref="A1:D62" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6" headerRowCellStyle="Normal_admin2">
+  <autoFilter ref="A1:D62"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="admin1_PCODE" dataDxfId="5" dataCellStyle="Normal_admin2"/>
+    <tableColumn id="2" name="admin1_EN" dataDxfId="4" dataCellStyle="Normal_admin2"/>
+    <tableColumn id="3" name="admin2_PCODE" dataDxfId="3" dataCellStyle="Normal_admin2"/>
+    <tableColumn id="4" name="admin2_EN" dataDxfId="2" dataCellStyle="Normal_admin2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1240,6 +1751,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1275,6 +1803,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1455,188 +2000,194 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="31" style="15" customWidth="1"/>
-    <col min="3" max="3" width="109.77734375" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="15"/>
+    <col min="3" max="3" width="109.7109375" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
     </row>
-    <row r="8" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" s="9" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>1</v>
       </c>
@@ -1645,25 +2196,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>2</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>3</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>4</v>
       </c>
@@ -1672,271 +2223,271 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="19"/>
       <c r="C25" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="19"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="19"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="19"/>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="19"/>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>1</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>2</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>3</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="19"/>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="19"/>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="19"/>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="19"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="19"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="19"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>1</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>2</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>3</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>4</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>5</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="19"/>
       <c r="C46" s="14"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="19"/>
       <c r="C47" s="14"/>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="19"/>
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="19"/>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
       <c r="B50" s="19"/>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="19"/>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="19"/>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="19"/>
       <c r="C53" s="14"/>
     </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="19"/>
       <c r="C54" s="14"/>
     </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="19"/>
       <c r="C55" s="14"/>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="19"/>
       <c r="C56" s="14"/>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="19"/>
       <c r="C57" s="14"/>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="19"/>
       <c r="C58" s="14"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="19"/>
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="19"/>
       <c r="C60" s="14"/>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="19"/>
       <c r="C61" s="14"/>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="19"/>
       <c r="C62" s="14"/>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="19"/>
       <c r="C63" s="14"/>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="19"/>
       <c r="C64" s="14"/>
     </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="19"/>
       <c r="C65" s="14"/>
     </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="19"/>
       <c r="C66" s="14"/>
     </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="19"/>
       <c r="C67" s="14"/>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="19"/>
       <c r="C68" s="14"/>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1946,910 +2497,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="25">
+        <f ca="1">COUNTA(INDIRECT(A2&amp;"!"&amp;"A:A"))</f>
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="25">
+        <f t="shared" ref="D3:D10" ca="1" si="0">COUNTA(INDIRECT(A3&amp;"!"&amp;"A:A"))</f>
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>148</v>
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="36" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
@@ -2857,13 +2710,13 @@
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>149</v>
       </c>
@@ -2871,13 +2724,13 @@
         <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>149</v>
       </c>
@@ -2885,13 +2738,13 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>149</v>
       </c>
@@ -2899,13 +2752,13 @@
         <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>149</v>
       </c>
@@ -2913,13 +2766,13 @@
         <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>149</v>
       </c>
@@ -2927,13 +2780,13 @@
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>149</v>
       </c>
@@ -2941,13 +2794,13 @@
         <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>149</v>
       </c>
@@ -2955,13 +2808,13 @@
         <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>149</v>
       </c>
@@ -2969,13 +2822,13 @@
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>149</v>
       </c>
@@ -2983,13 +2836,13 @@
         <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>149</v>
       </c>
@@ -2997,13 +2850,13 @@
         <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>149</v>
       </c>
@@ -3011,13 +2864,13 @@
         <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>149</v>
       </c>
@@ -3025,14 +2878,1163 @@
         <v>150</v>
       </c>
       <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
         <v>144</v>
       </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/pcode_help.xlsx
+++ b/pcode_help.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_OCHA_TR\03_IM_Tools\PCoder_Generic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A38DE-9FF6-41A2-8C64-144BB42EF4F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="-15" windowWidth="15330" windowHeight="11760"/>
+    <workbookView xWindow="15345" yWindow="-15" windowWidth="15330" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="help" sheetId="8" r:id="rId1"/>
     <sheet name="settings" sheetId="11" r:id="rId2"/>
     <sheet name="admin1_EN" sheetId="12" r:id="rId3"/>
     <sheet name="admin2_EN" sheetId="13" r:id="rId4"/>
+    <sheet name="ESRI_MAPINFO_SHEET" sheetId="14" state="veryHidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">admin2_EN!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="210">
   <si>
     <t>One time only for initial loading of Add-In</t>
   </si>
@@ -489,18 +498,6 @@
     <t>Add-In file to load for PCoding tool.</t>
   </si>
   <si>
-    <t>Standard admin list for Governorate, four columns, No header (SYRIA | SYRIA PCODE | GOV PCODE | GOV NAME)</t>
-  </si>
-  <si>
-    <t>Standard admin list for District, four columns, No header (GOV PCODE | GOV NAME | DISTRICT PCODE | DISTRICT NAME)</t>
-  </si>
-  <si>
-    <t>Standard admin list for Sub-District, four columns, No header (DISTRICT PCODE | DISTRICT NAME | SUBDISTRICT PCODE | SUBDISTRICT NAME)</t>
-  </si>
-  <si>
-    <t>Standard admin list for Community, four columns, No header (SUBDISTRICT PCODE | SUBDISTRICT NAME | COMMUNITY PCODE | COMMUNITY NAME)</t>
-  </si>
-  <si>
     <t>Click 'P-Coder' under 'ADD-INS' menu. A selection form will appear.</t>
   </si>
   <si>
@@ -627,9 +624,6 @@
     <t>admin1_PCODE</t>
   </si>
   <si>
-    <t>admin2_PCODE</t>
-  </si>
-  <si>
     <t>CREATE TABLES</t>
   </si>
   <si>
@@ -640,13 +634,43 @@
   </si>
   <si>
     <t>List of admin levels and display names. Keep the sheet name same as the name listed in the "settings" sheet otherwise program will not work. No space in the sheet name. Use the same sheet name to create tables in each sheet.</t>
+  </si>
+  <si>
+    <t>Standard admin list for Governorate, four columns (SYRIA | SYRIA PCODE | GOV PCODE | GOV NAME). Create table with same name of the sheet.</t>
+  </si>
+  <si>
+    <t>Standard admin list for District, four columns (GOV PCODE | GOV NAME | DISTRICT PCODE | DISTRICT NAME). Create table with same name of the sheet.</t>
+  </si>
+  <si>
+    <t>Standard admin list for Sub-District, four columns (DISTRICT PCODE | DISTRICT NAME | SUBDISTRICT PCODE | SUBDISTRICT NAME). Create table with same name of the sheet.</t>
+  </si>
+  <si>
+    <t>Standard admin list for Community, four columns (SUBDISTRICT PCODE | SUBDISTRICT NAME | COMMUNITY PCODE | COMMUNITY NAME). Create table with same name of the sheet.</t>
+  </si>
+  <si>
+    <t>admin1Pcode</t>
+  </si>
+  <si>
+    <t>admin1Name_en</t>
+  </si>
+  <si>
+    <t>admin2Pcode</t>
+  </si>
+  <si>
+    <t>admin2Name_en</t>
+  </si>
+  <si>
+    <t>SY1006</t>
+  </si>
+  <si>
+    <t>Qadmous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -701,8 +725,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +879,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -854,9 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -919,12 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -932,37 +958,47 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_admin2" xfId="1"/>
-    <cellStyle name="Normal_dist" xfId="2"/>
+    <cellStyle name="Normal_admin2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_dist" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -975,45 +1011,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1033,9 +1031,7 @@
         <top style="thin">
           <color indexed="22"/>
         </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1052,7 +1048,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1074,9 +1070,7 @@
         <top style="thin">
           <color indexed="22"/>
         </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1093,7 +1087,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1115,9 +1109,7 @@
         <top style="thin">
           <color indexed="22"/>
         </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1134,7 +1126,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1154,18 +1146,9 @@
         <top style="thin">
           <color indexed="22"/>
         </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1176,35 +1159,47 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1634,14 +1629,114 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>294147</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE3E3AC-C848-4F85-BF14-F399C4FF9E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6390147" cy="1650965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5000" b="1" i="0" cap="none" spc="0">
+              <a:ln w="18000">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="140000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:noFill/>
+              <a:effectLst>
+                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>DO NOT EDIT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5000" b="1" i="0" cap="none" spc="0">
+              <a:ln w="18000">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="140000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:noFill/>
+              <a:effectLst>
+                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> For Esri use only</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="settings" displayName="settings" ref="A1:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="settings" displayName="settings" ref="A1:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="6">
+  <autoFilter ref="A1:D10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Sheet names (same as admin level)" dataDxfId="12"/>
-    <tableColumn id="2" name="Display names in the form" dataDxfId="11"/>
-    <tableColumn id="3" name="Description" dataDxfId="10"/>
-    <tableColumn id="4" name="NumRows" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sheet names (same as admin level)" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Display names in the form" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="NumRows" dataDxfId="7">
       <calculatedColumnFormula>COUNTA(INDIRECT(A2&amp;"!"&amp;"A:A"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1650,26 +1745,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="admin1_EN" displayName="admin1_EN" ref="A1:D15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="admin1_EN" displayName="admin1_EN" ref="A1:D15" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="admin0_PCODE"/>
-    <tableColumn id="2" name="admin0_EN"/>
-    <tableColumn id="3" name="admin1_PCODE"/>
-    <tableColumn id="4" name="admin1_EN"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="admin0_PCODE"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="admin0_EN"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="admin1_PCODE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="admin1_EN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="admin2_EN" displayName="admin2_EN" ref="A1:D62" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6" headerRowCellStyle="Normal_admin2">
-  <autoFilter ref="A1:D62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{90F494B7-CA41-474F-8D8C-97D2C59B1E8A}" name="admin2_EN" displayName="admin2_EN" ref="A1:D63" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" headerRowCellStyle="Normal_admin2">
+  <autoFilter ref="A1:D63" xr:uid="{C11AD0C0-3448-4984-988A-1B3F58E63803}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="admin1_PCODE" dataDxfId="5" dataCellStyle="Normal_admin2"/>
-    <tableColumn id="2" name="admin1_EN" dataDxfId="4" dataCellStyle="Normal_admin2"/>
-    <tableColumn id="3" name="admin2_PCODE" dataDxfId="3" dataCellStyle="Normal_admin2"/>
-    <tableColumn id="4" name="admin2_EN" dataDxfId="2" dataCellStyle="Normal_admin2"/>
+    <tableColumn id="1" xr3:uid="{1A9C0032-B05F-4B98-8A0F-5DAD50B0DB78}" name="admin1Pcode" dataDxfId="3" dataCellStyle="Normal_admin2"/>
+    <tableColumn id="2" xr3:uid="{73A2942C-B586-4CD1-A9DC-79FC40EBA147}" name="admin1Name_en" dataDxfId="2" dataCellStyle="Normal_admin2"/>
+    <tableColumn id="3" xr3:uid="{55864367-1B46-4FBB-83B4-05C1A05F3350}" name="admin2Pcode" dataDxfId="1" dataCellStyle="Normal_admin2"/>
+    <tableColumn id="4" xr3:uid="{45668867-C99F-431F-A7A7-E949ABA9D5FC}" name="admin2Name_en" dataDxfId="0" dataCellStyle="Normal_admin2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1995,26 +2090,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="31" style="15" customWidth="1"/>
-    <col min="3" max="3" width="109.7109375" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="15"/>
+    <col min="1" max="1" width="19.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="31" style="14" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2024,468 +2119,468 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>180</v>
+      <c r="B3" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>170</v>
+      <c r="B4" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>163</v>
+      <c r="B6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" s="9" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:3" s="8" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:3" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="10" t="s">
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>204</v>
+      <c r="C10" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>154</v>
+      <c r="C11" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>155</v>
+      <c r="C12" s="17" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>156</v>
+      <c r="C13" s="17" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>157</v>
+      <c r="C14" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>154</v>
+      <c r="C15" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>155</v>
+      <c r="C16" s="17" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>156</v>
+      <c r="C17" s="17" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>157</v>
+      <c r="C18" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>203</v>
+      <c r="A19" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>2</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18" t="s">
-        <v>178</v>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>3</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18" t="s">
-        <v>179</v>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>4</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18" t="s">
-        <v>171</v>
+      <c r="A25" s="15"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>1</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>168</v>
+      <c r="B31" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>2</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>166</v>
+      <c r="B32" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>3</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+    <row r="41" spans="1:3" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>1</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
+      <c r="B41" s="10"/>
+      <c r="C41" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>2</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
+      <c r="B42" s="10"/>
+      <c r="C42" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <v>3</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>4</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>5</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
-        <v>4</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
-        <v>5</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="14"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="14"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="14"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="14"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="14"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="14"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="14"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="14"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="14"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="14"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="14"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2496,167 +2591,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="18.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C2" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="D2" s="14">
         <f ca="1">COUNTA(INDIRECT(A2&amp;"!"&amp;"A:A"))</f>
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="B3" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="14">
         <f t="shared" ref="D3:D10" ca="1" si="0">COUNTA(INDIRECT(A3&amp;"!"&amp;"A:A"))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="25">
+      <c r="B4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="B5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="B6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="B7" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="B8" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="25">
+      <c r="B9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="A10" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2672,7 +2767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2681,32 +2776,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="36" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="37" t="s">
+    <row r="1" spans="1:4" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C2" t="s">
@@ -2717,10 +2812,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C3" t="s">
@@ -2731,10 +2826,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C4" t="s">
@@ -2745,10 +2840,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C5" t="s">
@@ -2759,10 +2854,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C6" t="s">
@@ -2773,10 +2868,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C7" t="s">
@@ -2787,10 +2882,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C8" t="s">
@@ -2801,10 +2896,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C9" t="s">
@@ -2815,10 +2910,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C10" t="s">
@@ -2829,10 +2924,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C11" t="s">
@@ -2843,10 +2938,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C12" t="s">
@@ -2857,10 +2952,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C13" t="s">
@@ -2871,10 +2966,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C14" t="s">
@@ -2885,10 +2980,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C15" t="s">
@@ -2899,240 +2994,240 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3145,11 +3240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3160,872 +3255,886 @@
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>3</v>
+    <row r="1" spans="1:4" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="35" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="35" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="35" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D63" s="39" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4037,4 +4146,17 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E98FD11-F651-4C90-8498-FC4D9E549CF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>